--- a/demo/sddt.xlsx
+++ b/demo/sddt.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17640"/>
+    <workbookView windowHeight="17660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>用户名</t>
   </si>
   <si>
     <t>密码</t>
+  </si>
+  <si>
+    <t>[{"contract_id":6199,"eviction_infos":{"outs":[],"ins":[{"start_time":"2022.09.21","fee_sort":"","e_type":"租金","id":28556,"can_edit":false,"remark":"","compute_method":"100.0-96.7=3.3","real_amount":3.3,"fee_type":0,"order_cycle":"2022.09.21~2022.10.20","amount":100,"end_time":"2022.10.20","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"水费","id":28558,"can_edit":false,"remark":"","compute_method":"10.0/1*1=10.0","real_amount":10,"fee_type":2,"order_cycle":"2022.09.21~2022.10.20","amount":10,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"电费","id":28559,"can_edit":false,"remark":"","compute_method":"20.0/1*1=20.0","real_amount":20,"fee_type":3,"order_cycle":"2022.09.21~2022.10.20","amount":20,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"}]}},{"contract_id":6200,"eviction_infos":{"outs":[],"ins":[{"start_time":"2022.09.21","fee_sort":"","e_type":"租金","id":28566,"can_edit":false,"remark":"","compute_method":"100.0-96.7=3.3","real_amount":3.3,"fee_type":0,"order_cycle":"2022.09.21~2022.10.20","amount":100,"end_time":"2022.10.20","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"水费","id":28568,"can_edit":false,"remark":"","compute_method":"10.0/1*1=10.0","real_amount":10,"fee_type":2,"order_cycle":"2022.09.21~2022.10.20","amount":10,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"电费","id":28569,"can_edit":false,"remark":"","compute_method":"20.0/1*1=20.0","real_amount":20,"fee_type":3,"order_cycle":"2022.09.21~2022.10.20","amount":20,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"}]}},{"contract_id":6201,"eviction_infos":{"outs":[],"ins":[{"start_time":"2022.09.21","fee_sort":"","e_type":"租金","id":28576,"can_edit":false,"remark":"","compute_method":"100.0-96.7=3.3","real_amount":3.3,"fee_type":0,"order_cycle":"2022.09.21~2022.10.20","amount":100,"end_time":"2022.10.20","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"水费","id":28578,"can_edit":false,"remark":"","compute_method":"10.0/1*1=10.0","real_amount":10,"fee_type":2,"order_cycle":"2022.09.21~2022.10.20","amount":10,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"电费","id":28579,"can_edit":false,"remark":"","compute_method":"20.0/1*1=20.0","real_amount":20,"fee_type":3,"order_cycle":"2022.09.21~2022.10.20","amount":20,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"}]}},{"contract_id":6202,"eviction_infos":{"outs":[],"ins":[{"start_time":"2022.09.21","fee_sort":"","e_type":"租金","id":28586,"can_edit":false,"remark":"","compute_method":"100.0-96.7=3.3","real_amount":3.3,"fee_type":0,"order_cycle":"2022.09.21~2022.10.20","amount":100,"end_time":"2022.10.20","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"水费","id":28588,"can_edit":false,"remark":"","compute_method":"10.0/1*1=10.0","real_amount":10,"fee_type":2,"order_cycle":"2022.09.21~2022.10.20","amount":10,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"电费","id":28589,"can_edit":false,"remark":"","compute_method":"20.0/1*1=20.0","real_amount":20,"fee_type":3,"order_cycle":"2022.09.21~2022.10.20","amount":20,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"}]}},{"contract_id":6203,"eviction_infos":{"outs":[],"ins":[{"start_time":"2022.09.21","fee_sort":"","e_type":"租金","id":28596,"can_edit":false,"remark":"","compute_method":"100.0-96.7=3.3","real_amount":3.3,"fee_type":0,"order_cycle":"2022.09.21~2022.10.20","amount":100,"end_time":"2022.10.20","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"水费","id":28598,"can_edit":false,"remark":"","compute_method":"10.0/1*1=10.0","real_amount":10,"fee_type":2,"order_cycle":"2022.09.21~2022.10.20","amount":10,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"电费","id":28599,"can_edit":false,"remark":"","compute_method":"20.0/1*1=20.0","real_amount":20,"fee_type":3,"order_cycle":"2022.09.21~2022.10.20","amount":20,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"}]}},{"contract_id":6204,"eviction_infos":{"outs":[],"ins":[{"start_time":"2022.09.21","fee_sort":"","e_type":"租金","id":28606,"can_edit":false,"remark":"","compute_method":"100.0-96.7=3.3","real_amount":3.3,"fee_type":0,"order_cycle":"2022.09.21~2022.10.20","amount":100,"end_time":"2022.10.20","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"水费","id":28608,"can_edit":false,"remark":"","compute_method":"10.0/1*1=10.0","real_amount":10,"fee_type":2,"order_cycle":"2022.09.21~2022.10.20","amount":10,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"电费","id":28609,"can_edit":false,"remark":"","compute_method":"20.0/1*1=20.0","real_amount":20,"fee_type":3,"order_cycle":"2022.09.21~2022.10.20","amount":20,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"}]}},{"contract_id":6205,"eviction_infos":{"outs":[],"ins":[{"start_time":"2022.09.21","fee_sort":"","e_type":"租金","id":28616,"can_edit":false,"remark":"","compute_method":"100.0-96.7=3.3","real_amount":3.3,"fee_type":0,"order_cycle":"2022.09.21~2022.10.20","amount":100,"end_time":"2022.10.20","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"水费","id":28618,"can_edit":false,"remark":"","compute_method":"10.0/1*1=10.0","real_amount":10,"fee_type":2,"order_cycle":"2022.09.21~2022.10.20","amount":10,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"电费","id":28619,"can_edit":false,"remark":"","compute_method":"20.0/1*1=20.0","real_amount":20,"fee_type":3,"order_cycle":"2022.09.21~2022.10.20","amount":20,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"}]}},{"contract_id":6206,"eviction_infos":{"outs":[],"ins":[{"start_time":"2022.09.21","fee_sort":"","e_type":"租金","id":28626,"can_edit":false,"remark":"","compute_method":"100.0-96.7=3.3","real_amount":3.3,"fee_type":0,"order_cycle":"2022.09.21~2022.10.20","amount":100,"end_time":"2022.10.20","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"水费","id":28628,"can_edit":false,"remark":"","compute_method":"10.0/1*1=10.0","real_amount":10,"fee_type":2,"order_cycle":"2022.09.21~2022.10.20","amount":10,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"电费","id":28629,"can_edit":false,"remark":"","compute_method":"20.0/1*1=20.0","real_amount":20,"fee_type":3,"order_cycle":"2022.09.21~2022.10.20","amount":20,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"}]}},{"contract_id":6207,"eviction_infos":{"outs":[],"ins":[{"start_time":"2022.09.21","fee_sort":"","e_type":"租金","id":28636,"can_edit":false,"remark":"","compute_method":"100.0-96.7=3.3","real_amount":3.3,"fee_type":0,"order_cycle":"2022.09.21~2022.10.20","amount":100,"end_time":"2022.10.20","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"水费","id":28638,"can_edit":false,"remark":"","compute_method":"10.0/1*1=10.0","real_amount":10,"fee_type":2,"order_cycle":"2022.09.21~2022.10.20","amount":10,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"},{"start_time":"2022.09.21","fee_sort":"cycle","e_type":"电费","id":28639,"can_edit":false,"remark":"","compute_method":"20.0/1*1=20.0","real_amount":20,"fee_type":3,"order_cycle":"2022.09.21~2022.10.20","amount":20,"end_time":"2022.09.21","flow_type":0,"fee_cycle":"2022.09.21~2022.09.21"}]}}]</t>
   </si>
 </sst>
 </file>
@@ -27,12 +31,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +45,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8.25"/>
+      <color rgb="FFCDCDCD"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -48,8 +59,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -58,6 +76,113 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,120 +195,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -194,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,35 +408,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,17 +438,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,158 +472,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,8 +974,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -997,4 +1011,26 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>